--- a/resourses/dataset/bugs.xlsx
+++ b/resourses/dataset/bugs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serwa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serwa\Desktop\ThesisProject\resourses\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277D2BF4-B276-4EED-B1E7-85EF1B2555B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19601EF-3417-4A45-9EBC-67DE38843FEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bugs" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -111,9 +111,6 @@
     <t>ServletContext.addJspFile() always fails with SecurityManager</t>
   </si>
   <si>
-    <t>switch from bndwrap task to bnd task</t>
-  </si>
-  <si>
     <t>CLOS</t>
   </si>
   <si>
@@ -123,24 +120,12 @@
     <t>Supports deploy Java EE web application to tomcat 10+</t>
   </si>
   <si>
-    <t>Re-use roles and groups defined on users on MemoryUserDatabase creation</t>
-  </si>
-  <si>
-    <t>minor</t>
-  </si>
-  <si>
     <t>bndlib is not needed</t>
   </si>
   <si>
     <t>trivial</t>
   </si>
   <si>
-    <t>enhancement</t>
-  </si>
-  <si>
-    <t>WebdavServlet does not send "getlastmodified" property for resource collections</t>
-  </si>
-  <si>
     <t>age_in_hours</t>
   </si>
   <si>
@@ -181,15 +166,6 @@
   </si>
   <si>
     <t>Bug06</t>
-  </si>
-  <si>
-    <t>Bug07</t>
-  </si>
-  <si>
-    <t>Bug08</t>
-  </si>
-  <si>
-    <t>Bug00</t>
   </si>
 </sst>
 </file>
@@ -1057,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1089,7 +1065,7 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1104,7 +1080,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1131,22 +1107,22 @@
         <v>11</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
         <v>12</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
         <v>13</v>
@@ -1155,7 +1131,7 @@
         <v>14</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="X1" t="s">
         <v>15</v>
@@ -1163,7 +1139,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>64632</v>
@@ -1202,18 +1178,18 @@
         <v>9</v>
       </c>
       <c r="O2" s="6">
-        <f t="shared" ref="O2:O10" si="0">J2*8760+K2*730.001+L2*24+M2+N2/60</f>
+        <f t="shared" ref="O2:O7" si="0">J2*8760+K2*730.001+L2*24+M2+N2/60</f>
         <v>2.15</v>
       </c>
       <c r="P2" s="5">
-        <f t="shared" ref="P2:P10" si="1">O2/24</f>
+        <f t="shared" ref="P2:P7" si="1">O2/24</f>
         <v>8.9583333333333334E-2</v>
       </c>
       <c r="Q2" s="5">
         <v>15</v>
       </c>
       <c r="R2" s="5">
-        <f t="shared" ref="R2:R10" si="2">Q2*F2</f>
+        <f t="shared" ref="R2:R7" si="2">Q2*F2</f>
         <v>90</v>
       </c>
       <c r="S2" t="s">
@@ -1237,7 +1213,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>64311</v>
@@ -1308,7 +1284,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>65037</v>
@@ -1317,7 +1293,7 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
         <v>23</v>
@@ -1379,16 +1355,16 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>64201</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
       </c>
       <c r="E5" t="s">
         <v>23</v>
@@ -1453,7 +1429,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>64513</v>
@@ -1462,10 +1438,10 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F6" s="4">
         <v>2</v>
@@ -1527,7 +1503,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>64735</v>
@@ -1596,225 +1572,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8">
-        <v>64442</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="4">
-        <v>3</v>
-      </c>
-      <c r="H8" s="1">
-        <v>43965.773611111108</v>
-      </c>
-      <c r="I8" s="1">
-        <v>43984.42291666667</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>18</v>
-      </c>
-      <c r="M8">
-        <v>15</v>
-      </c>
-      <c r="N8">
-        <v>35</v>
-      </c>
-      <c r="O8" s="6">
-        <f t="shared" si="0"/>
-        <v>447.58333333333331</v>
-      </c>
-      <c r="P8" s="5">
-        <f t="shared" si="1"/>
-        <v>18.649305555555554</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>8</v>
-      </c>
-      <c r="R8" s="5">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="S8" t="s">
-        <v>22</v>
-      </c>
-      <c r="T8" s="4">
-        <v>7</v>
-      </c>
-      <c r="U8">
-        <v>64858</v>
-      </c>
-      <c r="W8" s="4">
-        <v>1</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9">
-        <v>64540</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="4">
-        <v>4</v>
-      </c>
-      <c r="H9" s="1">
-        <v>44001.566666666666</v>
-      </c>
-      <c r="I9" s="1">
-        <v>44033.597222222219</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>44</v>
-      </c>
-      <c r="O9" s="6">
-        <f t="shared" si="0"/>
-        <v>754.73433333333332</v>
-      </c>
-      <c r="P9" s="5">
-        <f t="shared" si="1"/>
-        <v>31.447263888888887</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>5</v>
-      </c>
-      <c r="R9" s="5">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="S9" t="s">
-        <v>24</v>
-      </c>
-      <c r="T9" s="4">
-        <v>10</v>
-      </c>
-      <c r="U9">
-        <v>64549</v>
-      </c>
-      <c r="V9">
-        <v>64550</v>
-      </c>
-      <c r="W9" s="4">
-        <v>2</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10">
-        <v>64386</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1">
-        <v>43949.923611111109</v>
-      </c>
-      <c r="I10" s="1">
-        <v>43950.388194444444</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>11</v>
-      </c>
-      <c r="N10">
-        <v>9</v>
-      </c>
-      <c r="O10" s="6">
-        <f t="shared" si="0"/>
-        <v>11.15</v>
-      </c>
-      <c r="P10" s="5">
-        <f t="shared" si="1"/>
-        <v>0.46458333333333335</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>15</v>
-      </c>
-      <c r="R10" s="5">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="S10" t="s">
-        <v>22</v>
-      </c>
-      <c r="T10" s="4">
-        <v>7</v>
-      </c>
-      <c r="U10">
-        <v>64858</v>
-      </c>
-      <c r="W10" s="4">
-        <v>1</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:X12">
-    <sortCondition descending="1" ref="R2:R12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:X9">
+    <sortCondition descending="1" ref="R2:R9"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1823,10 +1583,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1842,7 +1602,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1851,24 +1611,24 @@
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>64632</v>
@@ -1895,7 +1655,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>64311</v>
@@ -1922,7 +1682,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>65037</v>
@@ -1949,7 +1709,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>64201</v>
@@ -1976,13 +1736,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>64513</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D6" s="4">
         <v>2</v>
@@ -2003,7 +1763,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>64735</v>
@@ -2027,87 +1787,6 @@
         <v>28</v>
       </c>
       <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8">
-        <v>64442</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="4">
-        <v>3</v>
-      </c>
-      <c r="E8" s="6">
-        <v>447.58333333333331</v>
-      </c>
-      <c r="F8" s="5">
-        <v>18.649305555555554</v>
-      </c>
-      <c r="G8" s="5">
-        <v>8</v>
-      </c>
-      <c r="H8" s="5">
-        <v>24</v>
-      </c>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9">
-        <v>64540</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="4">
-        <v>4</v>
-      </c>
-      <c r="E9" s="6">
-        <v>754.73433333333332</v>
-      </c>
-      <c r="F9" s="5">
-        <v>31.447263888888887</v>
-      </c>
-      <c r="G9" s="5">
-        <v>5</v>
-      </c>
-      <c r="H9" s="5">
-        <v>20</v>
-      </c>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10">
-        <v>64386</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="6">
-        <v>11.15</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0.46458333333333335</v>
-      </c>
-      <c r="G10" s="5">
-        <v>15</v>
-      </c>
-      <c r="H10" s="5">
-        <v>15</v>
-      </c>
-      <c r="I10" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
